--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\lego-price-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE76363-BE18-4EFC-898B-81AE0A96180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCC5A1E-A159-4670-BB27-506FFFBB2FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID_Set</t>
   </si>
@@ -44,40 +44,61 @@
     <t>Nom_Set</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Selecteur</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Bonsaï d’érable rouge du Japon</t>
   </si>
   <si>
-    <t>Lego.com</t>
-  </si>
-  <si>
-    <t>https://www.lego.com/fr-fr/product/japanese-red-maple-bonsai-tree-10348</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>[data-test="product-price"]</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>https://www.amazon.fr/dp/B0DWF6VKYB</t>
+  </si>
+  <si>
+    <t>URL_Amazon</t>
+  </si>
+  <si>
+    <t>URL_Auchan</t>
+  </si>
+  <si>
+    <t>URL_Leclerc</t>
+  </si>
+  <si>
+    <t>URL_Lego</t>
+  </si>
+  <si>
+    <t>https://www.auchan.fr/lego-botanicals-icons-10348-bonsai-d-erable-rouge-du-japon/pr-C1839443</t>
+  </si>
+  <si>
+    <t>https://www.e.leclerc/fp/lego-botanique-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-5702017814674</t>
+  </si>
+  <si>
+    <t>La machine volante de Léonard de Vinci</t>
+  </si>
+  <si>
+    <t>Shelby Cobra 427 S/C</t>
+  </si>
+  <si>
+    <t>La planète Terre et la Lune en orbite</t>
+  </si>
+  <si>
+    <t>Mario Kart : Mario et kart standard</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/LEGO-10363-Icons/dp/B01NAELBNS</t>
+  </si>
+  <si>
+    <t>https://www.e.leclerc/fp/lego-icons-la-machine-volante-de-leonard-de-vinci-10363-5702017815893</t>
+  </si>
+  <si>
+    <t>https://www.auchan.fr/lego-icons-10363-machine-a-voler-leonardo-de-vinci/pr-C1825565</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Technic-Building-Imaginative-Independent-Birthday/dp/B0DLZDDL1F</t>
+  </si>
+  <si>
+    <t>https://www.e.leclerc/fp/la-planete-terre-et-la-lune-en-orbite-5702017584133?srsltid=AfmBOop8NM1B7783jZYpdYv0gv5VSAZBW-RUnZOD-Y5-SxNFC-i5PgnG</t>
+  </si>
+  <si>
+    <t>https://www.auchan.fr/lego-lego-technic-42179-la-planete-terre-et-la-lune-en-orbite-jouet-theme-du-systeme-solaire/pr-C1769135</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/LEGO-Mario-Kart-Personnage-Construire/dp/B0DWM6NM4Y</t>
   </si>
 </sst>
 </file>
@@ -406,20 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -430,16 +451,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -447,43 +468,98 @@
         <v>10348</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A2)</f>
+        <v>https://www.lego.com/fr-fr/product/10348</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10348</v>
+        <v>10363</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
+        <v>https://www.lego.com/fr-fr/product/10363</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/10357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/42179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>72037</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/72037</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{9D44B775-EBC2-4AEB-A408-0D596EDE8707}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{017150D4-D8EE-48AE-84A0-D3F911D9E182}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{1D744576-95AB-4634-9F49-A0955F25CEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\lego-price-tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCC5A1E-A159-4670-BB27-506FFFBB2FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA70638-EFB0-4ED7-9EEA-CACDA457DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID_Set</t>
   </si>
@@ -99,6 +99,69 @@
   </si>
   <si>
     <t>https://www.amazon.fr/LEGO-Mario-Kart-Personnage-Construire/dp/B0DWM6NM4Y</t>
+  </si>
+  <si>
+    <t>URL_Carrefour</t>
+  </si>
+  <si>
+    <t>URL_Fnac</t>
+  </si>
+  <si>
+    <t>https://www.fnac.com/LEGO-Botanicals-10348-Bonsai-d-erable-rouge-du-Japon/a21473837/w-4</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.fr/p/lego-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-lego-5702017814674</t>
+  </si>
+  <si>
+    <t>https://www.fnac.com/LEGO-Icons-10363-La-machine-volante-de-Leonard-de-Vinci/a20941828/w-4</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.fr/p/lego-icons-la-machine-volante-de-leonard-de-vinci-10363-lego-5702017815893</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.fr/p/lego-technic-la-planete-et-la-lune-en-orbite-42179-lego-5702017584133</t>
+  </si>
+  <si>
+    <t>https://www.fnac.com/LEGO-Technic-42179-La-planete-Terre-et-la-Lune-en-orbite/a18821666/w-4</t>
+  </si>
+  <si>
+    <t>https://www.fnac.com/LEGO-Super-Mario-72037-Mario-Kart-Mario-et-kart-standard/a21530153/w-4</t>
+  </si>
+  <si>
+    <t>Vespa 125</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Lego-10298-Vespa/dp/B09BNX43N7</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.fr/p/lego-icons-vespa-125-10298-lego-5702017151861</t>
+  </si>
+  <si>
+    <t>https://www.fnac.com/LEGO-Icons-10298-Vespa-125/a16414099/w-4</t>
+  </si>
+  <si>
+    <t>https://www.e.leclerc/fp/vespa-125-5702017151861?srsltid=AfmBOorK8hWNuDaWDnBRXOieFfyR0o37SDXgw_weW8G7NaA1c6amXmzX</t>
+  </si>
+  <si>
+    <t>https://www.auchan.fr/lego-creator-10298-vespa-125-bleu/pr-C1487426</t>
+  </si>
+  <si>
+    <t>Perseverance</t>
+  </si>
+  <si>
+    <t>https://www.auchan.fr/lego-technic-42158-nasa-mars-rover-perseverance-avec-ar-app-experience-decouverte-de-la-science-et-de-l-espace-jouet-de-construction-d-ingenierie-de-vehicule/pr-C1718308</t>
+  </si>
+  <si>
+    <t>https://www.e.leclerc/fp/perseverance-l-astromobile-de-la-nasa-sur-mars-5702017425184</t>
+  </si>
+  <si>
+    <t>https://www.fnac.com/LEGO-Technic-42158-Nasa-Mars-Rover-Perseverance/a17922351/w-4</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.fr/p/lego-technic-nasa-mars-rover-perseverance-42158-lego-5702017425184</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Mars-Rover-Perserverance-Weltraum-Spielzeug-Wissenschafts-Spielzeug/dp/B0BPC8W2GD?th=1</t>
   </si>
 </sst>
 </file>
@@ -114,9 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,16 +201,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,23 +487,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +524,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10348</v>
       </c>
@@ -473,7 +541,7 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A2)</f>
         <v>https://www.lego.com/fr-fr/product/10348</v>
       </c>
@@ -483,83 +551,416 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10363</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D6" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
         <v>https://www.lego.com/fr-fr/product/10363</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10357</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10357</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42179</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42179</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>72037</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/72037</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10298</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/10298</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/42158</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{017150D4-D8EE-48AE-84A0-D3F911D9E182}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{1D744576-95AB-4634-9F49-A0955F25CEF6}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{080A9B6B-9EA2-4235-9E5C-6651ED8C2641}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{A64E6C80-5978-4649-AFB6-953F820F425E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA70638-EFB0-4ED7-9EEA-CACDA457DD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB0AF6-FB69-4074-84A1-9DA16965C996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\lego-price-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB0AF6-FB69-4074-84A1-9DA16965C996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B49A73F-8CAD-43D8-AD09-1E306DA8C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>ID_Set</t>
   </si>
@@ -162,13 +162,82 @@
   </si>
   <si>
     <t>https://www.amazon.fr/Mars-Rover-Perserverance-Weltraum-Spielzeug-Wissenschafts-Spielzeug/dp/B0BPC8W2GD?th=1</t>
+  </si>
+  <si>
+    <t>Image_URL</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltd4a3e6e4bf1b680c/10348_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltfb6b9d757d63ea76/10363_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt8a933e3230c8710d/10357_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt09511e795b685260/42179.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt9b9bd9113f7f11d9/72037_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt1a663eb568ea1092/10298.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blta86927fe22ad5dd9/42158.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt519dac201a3dd4c1/42172.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>McLaren P1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt25bc5b8dc7d77c0b/75639_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>Le bateau pirate Vogue Merry</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/LEGO-Technic-McLaren-Passionn%C3%A9s-V%C3%A9hicules/dp/B0CWH3TBGB</t>
+  </si>
+  <si>
+    <t>https://www.e.leclerc/fp/mclaren-p1-5702017595672</t>
+  </si>
+  <si>
+    <t>https://www.auchan.fr/lego-technic-42172-mclaren-p1-supercar/pr-C1814023</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt27ee0bb344dc3271/10375_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>Dragons : Krokmou</t>
+  </si>
+  <si>
+    <t>L’oiseau de paradis</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltc2edb6b35f8051ba/10289_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/LEGO-10289-Creator-construction-Artificielles/dp/B0928GQRF5</t>
+  </si>
+  <si>
+    <t>Hibiscus</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +248,20 @@
     <font>
       <sz val="3"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,9 +287,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,25 +572,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,25 +598,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10348</v>
       </c>
@@ -539,26 +627,29 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <f>_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A2)</f>
         <v>https://www.lego.com/fr-fr/product/10348</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10363</v>
       </c>
@@ -566,43 +657,49 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D8" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E13" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
         <v>https://www.lego.com/fr-fr/product/10363</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10357</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10357</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42179</v>
       </c>
@@ -610,26 +707,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42179</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>72037</v>
       </c>
@@ -637,20 +737,23 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/72037</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10298</v>
       </c>
@@ -658,26 +761,29 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10298</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42158</v>
       </c>
@@ -685,282 +791,354 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42158</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/42172</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>75639</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/75639</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10375</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/10375</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/10289</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10372</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.lego.com/fr-fr/product/10372</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{017150D4-D8EE-48AE-84A0-D3F911D9E182}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{1D744576-95AB-4634-9F49-A0955F25CEF6}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{080A9B6B-9EA2-4235-9E5C-6651ED8C2641}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{A64E6C80-5978-4649-AFB6-953F820F425E}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{017150D4-D8EE-48AE-84A0-D3F911D9E182}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{1D744576-95AB-4634-9F49-A0955F25CEF6}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{080A9B6B-9EA2-4235-9E5C-6651ED8C2641}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{A64E6C80-5978-4649-AFB6-953F820F425E}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{3BF78B1B-B375-47E6-B3DA-A5F26C0DDB00}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{C2F7C360-5962-401E-84A8-81CF0A5D9292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\lego-price-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B49A73F-8CAD-43D8-AD09-1E306DA8C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAEB2E3-0ED7-4544-8A94-EF6525A11E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>ID_Set</t>
   </si>
@@ -231,6 +231,27 @@
   </si>
   <si>
     <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>nbPieces</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Botanicals</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Technic</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>One Piece</t>
   </si>
 </sst>
 </file>
@@ -572,25 +593,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,545 +622,623 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10348</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2">
+        <v>474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <f>_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A2)</f>
         <v>https://www.lego.com/fr-fr/product/10348</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10363</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E13" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G13" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
         <v>https://www.lego.com/fr-fr/product/10363</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10357</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4">
+        <v>1241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="str">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10357</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42179</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5">
+        <v>526</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42179</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>72037</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6">
+        <v>1972</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/72037</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10298</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7">
+        <v>1107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10298</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42158</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8">
+        <v>1132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42158</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42172</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9">
+        <v>3893</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42172</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75639</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10">
+        <v>1376</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/75639</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10375</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11">
+        <v>784</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10375</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10289</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12">
+        <v>1173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10289</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10372</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13">
+        <v>660</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10372</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{017150D4-D8EE-48AE-84A0-D3F911D9E182}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{1D744576-95AB-4634-9F49-A0955F25CEF6}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{080A9B6B-9EA2-4235-9E5C-6651ED8C2641}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{A64E6C80-5978-4649-AFB6-953F820F425E}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{3BF78B1B-B375-47E6-B3DA-A5F26C0DDB00}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{C2F7C360-5962-401E-84A8-81CF0A5D9292}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A62C0F38-66F0-4EBB-85C9-0A2D96C334F6}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{017150D4-D8EE-48AE-84A0-D3F911D9E182}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{1D744576-95AB-4634-9F49-A0955F25CEF6}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{080A9B6B-9EA2-4235-9E5C-6651ED8C2641}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{A64E6C80-5978-4649-AFB6-953F820F425E}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{3BF78B1B-B375-47E6-B3DA-A5F26C0DDB00}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{C2F7C360-5962-401E-84A8-81CF0A5D9292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\lego-price-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAEB2E3-0ED7-4544-8A94-EF6525A11E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56FC7D-01CB-4AAF-85C7-54DCF3B1B541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,15 +71,9 @@
     <t>La machine volante de Léonard de Vinci</t>
   </si>
   <si>
-    <t>Shelby Cobra 427 S/C</t>
-  </si>
-  <si>
     <t>La planète Terre et la Lune en orbite</t>
   </si>
   <si>
-    <t>Mario Kart : Mario et kart standard</t>
-  </si>
-  <si>
     <t>https://www.amazon.fr/LEGO-10363-Icons/dp/B01NAELBNS</t>
   </si>
   <si>
@@ -215,12 +209,6 @@
     <t>https://www.lego.com/cdn/cs/set/assets/blt27ee0bb344dc3271/10375_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
   </si>
   <si>
-    <t>Dragons : Krokmou</t>
-  </si>
-  <si>
-    <t>L’oiseau de paradis</t>
-  </si>
-  <si>
     <t>https://www.lego.com/cdn/cs/set/assets/bltc2edb6b35f8051ba/10289_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
   </si>
   <si>
@@ -252,6 +240,18 @@
   </si>
   <si>
     <t>One Piece</t>
+  </si>
+  <si>
+    <t>Shelby Cobra 427 SC</t>
+  </si>
+  <si>
+    <t>Dragons Krokmou</t>
+  </si>
+  <si>
+    <t>Mario Kart Mario et kart standard</t>
+  </si>
+  <si>
+    <t>Oiseau de paradis</t>
   </si>
 </sst>
 </file>
@@ -596,13 +596,13 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
@@ -622,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -643,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -660,10 +660,10 @@
         <v>474</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -696,29 +696,29 @@
         <v>493</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G13" si="0">_xlfn.CONCAT("https://www.lego.com/fr-fr/product/",A3)</f>
         <v>https://www.lego.com/fr-fr/product/10363</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -726,16 +726,16 @@
         <v>10357</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1241</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="str">
@@ -752,35 +752,35 @@
         <v>42179</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>526</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42179</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,19 +788,19 @@
         <v>72037</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>1972</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -810,7 +810,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -818,35 +818,35 @@
         <v>10298</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1107</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/10298</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,35 +854,35 @@
         <v>42158</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1132</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42158</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,32 +890,32 @@
         <v>42172</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>3893</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>https://www.lego.com/fr-fr/product/42172</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -924,16 +924,16 @@
         <v>75639</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1376</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -949,16 +949,16 @@
         <v>10375</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>784</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -974,19 +974,19 @@
         <v>10289</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>1173</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1002,16 +1002,16 @@
         <v>10372</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,6 +1111,157 @@
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>43230</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La caméra Hommage à Walt Disney</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/b1S8pul</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/43230</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10368</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Le chrysanthème</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>The Botanical Collection</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltdbc3129b50f61480/10368_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/hoKJjfA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10368</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-icons-10368-chrysantheme-collection-botanique/pr-C1802539</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-icons-10368-le-chrysantheme-set-de-construction-5702017719689</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-icons-le-chrysantheme-10368-lego-5702017719689</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>43257</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/eRPMY6r</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/43257</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -1233,9 +1233,17 @@
           <t>https://www.lego.com/fr-fr/product/75417</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
     </row>
   </sheetData>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/LEGO-Star-75417-Marcheur-at-St/dp/B0DWDTK29J/ref=_sad</t>
+          <t>https://amzn.eu/d/9dKTDNd</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,6 +1246,214 @@
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>43267</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Le château des princesses et les animaux royaux</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/0IEMO6h</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/43267</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10342</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Le joli bouquet de fleurs roses</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>The Botanical Collection</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt1bcb187351a12753/10342_WEB_PRI_NOBG.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/dJwTE0D</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10342</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-botanicals-10342-le-joli-bouquet-de-fleurs-roses/pr-C1821871</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-botanique-10342-le-joli-bouquet-de-fleurs-roses-set-pour-adultes-5702017812540</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-joli-bouquet-de-fleurs-roses-10342-lego-5702017812540</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>31167</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Le manoir hanté</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Creator 3-en-1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/9geJ4zv</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/31167</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>60367</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>L’avion de ligne</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://amzn.eu/d/1x42GYW</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/60367</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,260 +988,260 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31173</t>
+          <t>43230</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Animaux sauvages : le toucan tropical</t>
+          <t>La caméra Hommage à Walt Disney</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>811</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Creator 3-en-1</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt3ab840676c1a00b4/31173_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/76Pp2v5</t>
+          <t>https://amzn.eu/d/b1S8pul</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31173</t>
+          <t>https://www.lego.com/fr-fr/product/43230</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-lego-creator-3-en-1-31173-animaux-sauvages-le-toucan-tropical/pr-68464d3a-f455-4039-949c-84a746ce74fb</t>
+          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-animaux-sauvages-le-toucan-tropical-31173-lego-5702017879956</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://www.brickmo.com/fr/new-at-brickmo/lego/78001/lego-creator-3in1-31173-animaux-sauvages-le-toucan-tropical-31173</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>43230</t>
+          <t>10368</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>La caméra Hommage à Walt Disney</t>
+          <t>Le chrysanthème</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltdbc3129b50f61480/10368_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/b1S8pul</t>
+          <t>https://amzn.eu/d/hoKJjfA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43230</t>
+          <t>https://www.lego.com/fr-fr/product/10368</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>https://www.auchan.fr/lego-icons-10368-chrysantheme-collection-botanique/pr-C1802539</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-icons-10368-le-chrysantheme-set-de-construction-5702017719689</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-icons-le-chrysantheme-10368-lego-5702017719689</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.brickmo.com/en/new-at-brickmo/lego/65737/lego-icons-10368-chrysanthemum-10368</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10368</t>
+          <t>43257</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Le chrysanthème</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltdbc3129b50f61480/10368_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/hoKJjfA</t>
+          <t>https://amzn.eu/d/eRPMY6r</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10368</t>
+          <t>https://www.lego.com/fr-fr/product/43257</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-icons-10368-chrysantheme-collection-botanique/pr-C1802539</t>
+          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.e.leclerc/fp/lego-icons-10368-le-chrysantheme-set-de-construction-5702017719689</t>
+          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.carrefour.fr/p/lego-icons-le-chrysantheme-10368-lego-5702017719689</t>
+          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.brickmo.com/en/new-at-brickmo/lego/65737/lego-icons-10368-chrysanthemum-10368</t>
+          <t>https://www.brickmo.com/fr/new-at-brickmo/lego/77959/lego-disney-classic-43257-angel-43257?c=5953</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>43257</t>
+          <t>75417</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Le marcheur AT-ST™</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>Star Wars™</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/eRPMY6r</t>
+          <t>https://amzn.eu/d/9dKTDNd</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43257</t>
+          <t>https://www.lego.com/fr-fr/product/75417</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
-        </is>
-      </c>
+          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://www.brickmo.com/fr/new-at-brickmo/lego/77959/lego-disney-classic-43257-angel-43257?c=5953</t>
-        </is>
-      </c>
+          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>75417</t>
+          <t>43267</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Le marcheur AT-ST™</t>
+          <t>Le château des princesses et les animaux royaux</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Star Wars™</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/9dKTDNd</t>
+          <t>https://amzn.eu/d/0IEMO6h</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75417</t>
+          <t>https://www.lego.com/fr-fr/product/43267</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
+          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1249,52 +1249,52 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>43267</t>
+          <t>10342</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Le château des princesses et les animaux royaux</t>
+          <t>Le joli bouquet de fleurs roses</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>749</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt1bcb187351a12753/10342_WEB_PRI_NOBG.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/0IEMO6h</t>
+          <t>https://amzn.eu/d/dJwTE0D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43267</t>
+          <t>https://www.lego.com/fr-fr/product/10342</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
+          <t>https://www.auchan.fr/lego-botanicals-10342-le-joli-bouquet-de-fleurs-roses/pr-C1821871</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
+          <t>https://www.e.leclerc/fp/lego-botanique-10342-le-joli-bouquet-de-fleurs-roses-set-pour-adultes-5702017812540</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
+          <t>https://www.carrefour.fr/p/lego-le-joli-bouquet-de-fleurs-roses-10342-lego-5702017812540</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1302,157 +1302,104 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10342</t>
+          <t>31167</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Le joli bouquet de fleurs roses</t>
+          <t>Le manoir hanté</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>736</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Creator 3-en-1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt1bcb187351a12753/10342_WEB_PRI_NOBG.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/dJwTE0D</t>
+          <t>https://amzn.eu/d/9geJ4zv</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10342</t>
+          <t>https://www.lego.com/fr-fr/product/31167</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-botanicals-10342-le-joli-bouquet-de-fleurs-roses/pr-C1821871</t>
+          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.e.leclerc/fp/lego-botanique-10342-le-joli-bouquet-de-fleurs-roses-set-pour-adultes-5702017812540</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-joli-bouquet-de-fleurs-roses-10342-lego-5702017812540</t>
-        </is>
-      </c>
+          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31167</t>
+          <t>60367</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Le manoir hanté</t>
+          <t>L’avion de ligne</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Creator 3-en-1</t>
+          <t>City</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://amzn.eu/d/9geJ4zv</t>
+          <t>https://amzn.eu/d/1x42GYW</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31167</t>
+          <t>https://www.lego.com/fr-fr/product/60367</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
+          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>60367</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>L’avion de ligne</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>913</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>https://amzn.eu/d/1x42GYW</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/60367</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adl\Documents\Divers\Scripts Python\lego-price-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B974BF8-5494-4FC8-A1F8-E61416014573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73CD6F-5B68-417C-B2B2-2223F89E2465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>ID_Set</t>
   </si>
@@ -94,33 +94,9 @@
     <t>https://www.lego.com/fr-fr/product/10357</t>
   </si>
   <si>
-    <t>42179</t>
-  </si>
-  <si>
-    <t>La planète Terre et la Lune en orbite</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
     <t>Technic</t>
   </si>
   <si>
-    <t>https://www.lego.com/cdn/cs/set/assets/blt09511e795b685260/42179.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
-  </si>
-  <si>
-    <t>https://www.lego.com/fr-fr/product/42179</t>
-  </si>
-  <si>
-    <t>https://www.auchan.fr/lego-lego-technic-42179-la-planete-terre-et-la-lune-en-orbite-jouet-theme-du-systeme-solaire/pr-C1769135</t>
-  </si>
-  <si>
-    <t>https://www.e.leclerc/fp/la-planete-terre-et-la-lune-en-orbite-5702017584133?srsltid=AfmBOop8NM1B7783jZYpdYv0gv5VSAZBW-RUnZOD-Y5-SxNFC-i5PgnG</t>
-  </si>
-  <si>
-    <t>https://www.carrefour.fr/p/lego-technic-la-planete-et-la-lune-en-orbite-42179-lego-5702017584133</t>
-  </si>
-  <si>
     <t>72037</t>
   </si>
   <si>
@@ -161,30 +137,6 @@
   </si>
   <si>
     <t>https://www.carrefour.fr/p/lego-icons-vespa-125-10298-lego-5702017151861</t>
-  </si>
-  <si>
-    <t>42158</t>
-  </si>
-  <si>
-    <t>Perseverance</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>https://www.lego.com/cdn/cs/set/assets/blta86927fe22ad5dd9/42158.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
-  </si>
-  <si>
-    <t>https://www.lego.com/fr-fr/product/42158</t>
-  </si>
-  <si>
-    <t>https://www.auchan.fr/lego-technic-42158-nasa-mars-rover-perseverance-avec-ar-app-experience-decouverte-de-la-science-et-de-l-espace-jouet-de-construction-d-ingenierie-de-vehicule/pr-C1718308</t>
-  </si>
-  <si>
-    <t>https://www.e.leclerc/fp/perseverance-l-astromobile-de-la-nasa-sur-mars-5702017425184</t>
-  </si>
-  <si>
-    <t>https://www.carrefour.fr/p/lego-technic-nasa-mars-rover-perseverance-42158-lego-5702017425184</t>
   </si>
   <si>
     <t>42172</t>
@@ -823,13 +775,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -911,50 +866,50 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -969,7 +924,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -998,168 +953,168 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
         <v>82</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -1170,25 +1125,22 @@
       <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>97</v>
-      </c>
-      <c r="I14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>101</v>
@@ -1217,15 +1169,18 @@
         <v>108</v>
       </c>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>111</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>112</v>
       </c>
       <c r="I16" t="s">
@@ -1243,21 +1198,18 @@
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1272,77 +1224,22 @@
         <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
         <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>URL_Carrefour</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>URL_AvenueDeLaBrique</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,7 @@
           <t>https://www.carrefour.fr/p/lego-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-lego-5702017814674</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -561,6 +567,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,6 +603,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -643,6 +651,7 @@
           <t>https://www.carrefour.fr/p/lego-icons-vespa-125-10298-lego-5702017151861</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +699,7 @@
           <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -725,6 +735,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -760,6 +771,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -795,6 +807,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -830,6 +843,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -869,6 +883,7 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -916,6 +931,7 @@
           <t>https://www.carrefour.fr/p/lego-icons-le-chrysantheme-10368-lego-5702017719689</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -963,6 +979,7 @@
           <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1023,7 @@
           <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1053,6 +1071,7 @@
           <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1096,6 +1115,7 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1141,6 +1161,47 @@
       <c r="I17" t="inlineStr">
         <is>
           <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>77243</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Voiture F1® Oracle Red Bull Racing RB20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Speed Champions</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8dac22afe99a2c70/77243_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/77243</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.avenuedelabrique.com/lego-speed-champions/77243-voiture-f1-oracle-red-bull-racing-rb20/p10441</t>
         </is>
       </c>
     </row>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,11 +1221,7 @@
           <t>617</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt43e116a81cdae61f/40825_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
@@ -1241,6 +1237,78 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10313</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bouquet de fleurs sauvages</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The Botanical Collection</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc4a6c2103a34f22e/10313_alt2.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10313</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10329</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Les plantes miniatures</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The Botanical Collection</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltb2f845ffd52a25b0/10329.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10329</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,6 +1309,46 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10280</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bouquet de fleurs</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The Botanical Collection</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt53711dac56e01b36/10280_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10280</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.avenuedelabrique.com/lego-creator/10280-bouquet-de-fleurs/p6299</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,6 +1349,154 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10370</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>L’étoile de Noël</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>The Botanical Collection</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10370</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>43278</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Château d’Arendelle et palais de glace d’Elsa miniatures</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9b30046d62bfedb3/43278_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/43278</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>40478</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Le château Disney miniature</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9a53be3e8553bce6/40478_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/40478</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.avenuedelabrique.com/lego-disney/40478-le-chateau-disney-miniature/p7596</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>L'île de Vaiana miniature</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blte3899e6f083ec338/43260_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/43260</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,6 +1497,114 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10796</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nom non trouvé</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8ceb255a3e66c253/10796.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/10796</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>77246</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nom non trouvé</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0a45cbfbac56a36b/77246_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/77246</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>42154</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nom non trouvé</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1468</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5014244d8d8dc8ad/42154.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/42154</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -1513,11 +1513,7 @@
           <t>165</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt8ceb255a3e66c253/10796.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
@@ -1549,11 +1545,7 @@
           <t>248</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt0a45cbfbac56a36b/77246_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
@@ -1585,11 +1577,7 @@
           <t>1468</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt5014244d8d8dc8ad/42154.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10348</t>
+          <t>10289</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bonsaï d’érable rouge du Japon</t>
+          <t>Oiseau de paradis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,45 +508,33 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltd4a3e6e4bf1b680c/10348_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc2edb6b35f8051ba/10289_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10348</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-botanicals-icons-10348-bonsai-d-erable-rouge-du-japon/pr-C1839443</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-botanique-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-5702017814674</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-lego-5702017814674</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/10289</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10357</t>
+          <t>10298</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shelby Cobra 427 SC</t>
+          <t>Vespa 125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,48 +544,60 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8a933e3230c8710d/10357_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt1a663eb568ea1092/10298.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10357</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/10298</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-creator-10298-vespa-125-bleu/pr-C1487426</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/vespa-125-5702017151861?srsltid=AfmBOorK8hWNuDaWDnBRXOieFfyR0o37SDXgw_weW8G7NaA1c6amXmzX</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-icons-vespa-125-10298-lego-5702017151861</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>72037</t>
+          <t>10325</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mario Kart Mario et kart standard</t>
+          <t>Le chalet alpin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LEGO® Super Mario™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9b9bd9113f7f11d9/72037_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt2069f4aa0d3bb63a/10325.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/72037</t>
+          <t>https://www.lego.com/fr-fr/product/10325</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -608,95 +608,83 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10298</t>
+          <t>10339</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vespa 125</t>
+          <t>Le bureau de poste du Père Noël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt1a663eb568ea1092/10298.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3c4e5efcccc53a93/10339_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10298</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-creator-10298-vespa-125-bleu/pr-C1487426</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/vespa-125-5702017151861?srsltid=AfmBOorK8hWNuDaWDnBRXOieFfyR0o37SDXgw_weW8G7NaA1c6amXmzX</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-icons-vespa-125-10298-lego-5702017151861</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/10339</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>42172</t>
+          <t>10348</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>McLaren P1</t>
+          <t>Bonsaï d’érable rouge du Japon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>474</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Technic</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt519dac201a3dd4c1/42172.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltd4a3e6e4bf1b680c/10348_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42172</t>
+          <t>https://www.lego.com/fr-fr/product/10348</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-technic-42172-mclaren-p1-supercar/pr-C1814023</t>
+          <t>https://www.auchan.fr/lego-botanicals-icons-10348-bonsai-d-erable-rouge-du-japon/pr-C1839443</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.e.leclerc/fp/mclaren-p1-5702017595672</t>
+          <t>https://www.e.leclerc/fp/lego-botanique-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-5702017814674</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
+          <t>https://www.carrefour.fr/p/lego-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-lego-5702017814674</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -704,32 +692,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>75639</t>
+          <t>10357</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le bateau pirate Vogue Merry</t>
+          <t>Shelby Cobra 427 SC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>One Piece</t>
+          <t>LEGO® Icons</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt25bc5b8dc7d77c0b/75639_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8a933e3230c8710d/10357_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75639</t>
+          <t>https://www.lego.com/fr-fr/product/10357</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -740,32 +728,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10375</t>
+          <t>10361</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dragons Krokmou</t>
+          <t>Le train de Noël</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>956</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt27ee0bb344dc3271/10375_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltd098a69c834e3ab1/10361_WEB_PRI_NOBG.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10375</t>
+          <t>https://www.lego.com/fr-fr/product/10361</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -776,17 +764,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10289</t>
+          <t>10370</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oiseau de paradis</t>
+          <t>L’étoile de Noël</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -796,12 +784,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc2edb6b35f8051ba/10289_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10289</t>
+          <t>https://www.lego.com/fr-fr/product/10370</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -848,39 +836,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>43230</t>
+          <t>10375</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>La caméra Hommage à Walt Disney</t>
+          <t>Dragons Krokmou</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>LEGO® Icons</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt27ee0bb344dc3271/10375_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43230</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/10375</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -888,65 +872,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10368</t>
+          <t>31167</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Le chrysanthème</t>
+          <t>Le manoir hanté</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>736</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Creator 3-en-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltdbc3129b50f61480/10368_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10368</t>
+          <t>https://www.lego.com/fr-fr/product/31167</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-icons-10368-chrysantheme-collection-botanique/pr-C1802539</t>
+          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.e.leclerc/fp/lego-icons-10368-le-chrysantheme-set-de-construction-5702017719689</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-icons-le-chrysantheme-10368-lego-5702017719689</t>
-        </is>
-      </c>
+          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>43257</t>
+          <t>40478</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Le château Disney miniature</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -956,283 +936,247 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9a53be3e8553bce6/40478_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43257</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/40478</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.avenuedelabrique.com/lego-disney/40478-le-chateau-disney-miniature/p7596</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>75417</t>
+          <t>40809</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Le marcheur AT-ST™</t>
+          <t>La maison en pain d’épices festive</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Star Wars™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltb7a1123d80cfb95b/40809_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75417</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/40809</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>43267</t>
+          <t>40820</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Le château des princesses et les animaux royaux</t>
+          <t>Minifigurine du Père Noël grand format</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>761</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc307fd1f5230e03d/40820_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43267</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/40820</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31167</t>
+          <t>40825</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le manoir hanté</t>
+          <t>La couronne d’Halloween</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>736</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Creator 3-en-1</t>
-        </is>
-      </c>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt43e116a81cdae61f/40825_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31167</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/40825</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>60367</t>
+          <t>41843</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L’avion de ligne</t>
+          <t>Sapin de Noël à construire en famille</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltae6e1e985a290a75/41843_WEB_PRI_NOBG_2.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/60367</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/41843</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>77243</t>
+          <t>42172</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Voiture F1® Oracle Red Bull Racing RB20</t>
+          <t>McLaren P1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Speed Champions</t>
+          <t>Technic</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8dac22afe99a2c70/77243_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt519dac201a3dd4c1/42172.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/77243</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.avenuedelabrique.com/lego-speed-champions/77243-voiture-f1-oracle-red-bull-racing-rb20/p10441</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/42172</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-technic-42172-mclaren-p1-supercar/pr-C1814023</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/mclaren-p1-5702017595672</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>40825</t>
+          <t>43230</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>La couronne d’Halloween</t>
+          <t>La caméra Hommage à Walt Disney</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Disney™</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt43e116a81cdae61f/40825_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40825</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/43230</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1240,68 +1184,80 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10313</t>
+          <t>43257</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bouquet de fleurs sauvages</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc4a6c2103a34f22e/10313_alt2.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10313</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/43257</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10329</t>
+          <t>43260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Les plantes miniatures</t>
+          <t>L'île de Vaiana miniature</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltb2f845ffd52a25b0/10329.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blte3899e6f083ec338/43260_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10329</t>
+          <t>https://www.lego.com/fr-fr/product/43260</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1312,72 +1268,80 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10280</t>
+          <t>43267</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bouquet de fleurs</t>
+          <t>Le château des princesses et les animaux royaux</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt53711dac56e01b36/10280_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10280</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.avenuedelabrique.com/lego-creator/10280-bouquet-de-fleurs/p6299</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/43267</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>43278</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L’étoile de Noël</t>
+          <t>Château d’Arendelle et palais de glace d’Elsa miniatures</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9b30046d62bfedb3/43278_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10370</t>
+          <t>https://www.lego.com/fr-fr/product/43278</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1388,140 +1352,160 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>43278</t>
+          <t>60367</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Château d’Arendelle et palais de glace d’Elsa miniatures</t>
+          <t>L’avion de ligne</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>City</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9b30046d62bfedb3/43278_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43278</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/60367</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>40478</t>
+          <t>72037</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Le château Disney miniature</t>
+          <t>Mario Kart Mario et kart standard</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>LEGO® Super Mario™</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9a53be3e8553bce6/40478_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9b9bd9113f7f11d9/72037_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40478</t>
+          <t>https://www.lego.com/fr-fr/product/72037</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.avenuedelabrique.com/lego-disney/40478-le-chateau-disney-miniature/p7596</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>43260</t>
+          <t>75417</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L'île de Vaiana miniature</t>
+          <t>Le marcheur AT-ST™</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>Star Wars™</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blte3899e6f083ec338/43260_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43260</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/75417</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10796</t>
+          <t>75639</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nom non trouvé</t>
+          <t>Le bateau pirate Vogue Merry</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>1376</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>One Piece</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8ceb255a3e66c253/10796.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt25bc5b8dc7d77c0b/75639_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10796</t>
+          <t>https://www.lego.com/fr-fr/product/75639</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1529,70 +1513,6 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>77246</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Nom non trouvé</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt0a45cbfbac56a36b/77246_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/77246</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>42154</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Nom non trouvé</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1468</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5014244d8d8dc8ad/42154.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/42154</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,11 +885,7 @@
           <t>874</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blte2213300ad453a44/31142.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
@@ -908,137 +904,137 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31167</t>
+          <t>31154</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Le manoir hanté</t>
+          <t>Les animaux de la forêt : Le renard roux</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Creator 3-en-1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt73662553f9401b9b/31154.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31167</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/31154</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40478</t>
+          <t>31167</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Le château Disney miniature</t>
+          <t>Le manoir hanté</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>736</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>Creator 3-en-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9a53be3e8553bce6/40478_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40478</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/31167</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.avenuedelabrique.com/lego-disney/40478-le-chateau-disney-miniature/p7596</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>40809</t>
+          <t>40478</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>La maison en pain d’épices festive</t>
+          <t>Le château Disney miniature</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltb7a1123d80cfb95b/40809_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9a53be3e8553bce6/40478_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40809</t>
+          <t>https://www.lego.com/fr-fr/product/40478</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.avenuedelabrique.com/lego-disney/40478-le-chateau-disney-miniature/p7596</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>40820</t>
+          <t>40809</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Minifigurine du Père Noël grand format</t>
+          <t>La maison en pain d’épices festive</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1048,12 +1044,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc307fd1f5230e03d/40820_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltb7a1123d80cfb95b/40809_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40820</t>
+          <t>https://www.lego.com/fr-fr/product/40809</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1064,17 +1060,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>40825</t>
+          <t>40820</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>La couronne d’Halloween</t>
+          <t>Minifigurine du Père Noël grand format</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>761</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1084,12 +1080,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt43e116a81cdae61f/40825_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc307fd1f5230e03d/40820_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40825</t>
+          <t>https://www.lego.com/fr-fr/product/40820</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1100,17 +1096,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>41843</t>
+          <t>40825</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sapin de Noël à construire en famille</t>
+          <t>La couronne d’Halloween</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3171</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1120,12 +1116,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltae6e1e985a290a75/41843_WEB_PRI_NOBG_2.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt43e116a81cdae61f/40825_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/41843</t>
+          <t>https://www.lego.com/fr-fr/product/40825</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1136,105 +1132,101 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>42172</t>
+          <t>41843</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>McLaren P1</t>
+          <t>Sapin de Noël à construire en famille</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Technic</t>
+          <t>LEGO® Icons</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt519dac201a3dd4c1/42172.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltae6e1e985a290a75/41843_WEB_PRI_NOBG_2.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42172</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-technic-42172-mclaren-p1-supercar/pr-C1814023</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/mclaren-p1-5702017595672</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/41843</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>43230</t>
+          <t>42172</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>La caméra Hommage à Walt Disney</t>
+          <t>McLaren P1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>Technic</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt519dac201a3dd4c1/42172.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43230</t>
+          <t>https://www.lego.com/fr-fr/product/42172</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>https://www.auchan.fr/lego-technic-42172-mclaren-p1-supercar/pr-C1814023</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/mclaren-p1-5702017595672</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>43257</t>
+          <t>43230</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>La caméra Hommage à Walt Disney</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>811</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1244,45 +1236,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43257</t>
+          <t>https://www.lego.com/fr-fr/product/43230</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
-        </is>
-      </c>
+          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>43260</t>
+          <t>43257</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L'île de Vaiana miniature</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1292,33 +1276,45 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blte3899e6f083ec338/43260_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43260</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/43257</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>43267</t>
+          <t>43260</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Le château des princesses et les animaux royaux</t>
+          <t>L'île de Vaiana miniature</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1328,45 +1324,33 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blte3899e6f083ec338/43260_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43267</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/43260</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>43278</t>
+          <t>43267</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Château d’Arendelle et palais de glace d’Elsa miniatures</t>
+          <t>Le château des princesses et les animaux royaux</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1376,182 +1360,230 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9b30046d62bfedb3/43278_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43278</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/43267</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>60367</t>
+          <t>43278</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L’avion de ligne</t>
+          <t>Château d’Arendelle et palais de glace d’Elsa miniatures</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Disney™</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9b30046d62bfedb3/43278_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/60367</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/43278</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>72037</t>
+          <t>60367</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mario Kart Mario et kart standard</t>
+          <t>L’avion de ligne</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LEGO® Super Mario™</t>
+          <t>City</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9b9bd9113f7f11d9/72037_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/72037</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>https://www.lego.com/fr-fr/product/60367</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>75417</t>
+          <t>72037</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Le marcheur AT-ST™</t>
+          <t>Mario Kart Mario et kart standard</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Star Wars™</t>
+          <t>LEGO® Super Mario™</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9b9bd9113f7f11d9/72037_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75417</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/72037</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>75417</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Le marcheur AT-ST™</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Star Wars™</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/75417</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>75639</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Le bateau pirate Vogue Merry</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>1376</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>One Piece</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt25bc5b8dc7d77c0b/75639_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.lego.com/fr-fr/product/75639</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10289</t>
+          <t>10370</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oiseau de paradis</t>
+          <t>L’étoile de Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc2edb6b35f8051ba/10289_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10289</t>
+          <t>https://www.lego.com/fr-fr/product/10370</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -524,80 +524,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10298</t>
+          <t>10372</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vespa 125</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>660</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt1a663eb568ea1092/10298.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10298</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-creator-10298-vespa-125-bleu/pr-C1487426</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/vespa-125-5702017151861?srsltid=AfmBOorK8hWNuDaWDnBRXOieFfyR0o37SDXgw_weW8G7NaA1c6amXmzX</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-icons-vespa-125-10298-lego-5702017151861</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/10372</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10325</t>
+          <t>11370</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le chalet alpin</t>
+          <t>Stranger Things : la Maison Creel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt2069f4aa0d3bb63a/10325.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8170cb2935ea6596/11370_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10325</t>
+          <t>https://www.lego.com/fr-fr/product/11370</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -608,32 +596,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10339</t>
+          <t>11372</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le bureau de poste du Père Noël</t>
+          <t>Le jardin d'automne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt3c4e5efcccc53a93/10339_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0345da5be8baeb2d/11372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10339</t>
+          <t>https://www.lego.com/fr-fr/product/11372</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -644,80 +632,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10348</t>
+          <t>11384</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bonsaï d’érable rouge du Japon</t>
+          <t>Le chiot Golden Retriever</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltd4a3e6e4bf1b680c/10348_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc6a68358c38c3bf9/blt00e69bfd89abdb56-11384_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10348</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-botanicals-icons-10348-bonsai-d-erable-rouge-du-japon/pr-C1839443</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-botanique-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-5702017814674</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-bonsai-d-erable-rouge-du-japon-decoration-vegetale-10348-lego-5702017814674</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/11384</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10357</t>
+          <t>11508</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shelby Cobra 427 SC</t>
+          <t>Marguerites</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8a933e3230c8710d/10357_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt515cd2564f9b2dcf/11508_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10357</t>
+          <t>https://www.lego.com/fr-fr/product/11508</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -728,32 +704,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10361</t>
+          <t>11509</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le train de Noël</t>
+          <t>Cactus fleuri</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltd098a69c834e3ab1/10361_WEB_PRI_NOBG.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt05c278dbcfaa4871/11509_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10361</t>
+          <t>https://www.lego.com/fr-fr/product/11509</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -764,32 +740,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>21365</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L’étoile de Noël</t>
+          <t>Les oiseaux amoureux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>750</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt859e843a3f8c5af9/21365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10370</t>
+          <t>https://www.lego.com/fr-fr/product/21365</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -800,32 +776,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10372</t>
+          <t>31218</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hibiscus</t>
+          <t>Les cerisiers en fleurs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3f6cace2ff7687c6/31218_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10372</t>
+          <t>https://www.lego.com/fr-fr/product/31218</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -836,32 +812,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10375</t>
+          <t>31378</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dragons Krokmou</t>
+          <t>Le télescope d’exploration spatiale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt27ee0bb344dc3271/10375_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt71fe323b45263a78/31378_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10375</t>
+          <t>https://www.lego.com/fr-fr/product/31378</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -872,28 +848,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31142</t>
+          <t>31379</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Les montagnes russes de l’espace</t>
+          <t>Le dinosaure féroce</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>874</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blte2213300ad453a44/31142.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt94ad0e9878a39d0a/31379_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31142</t>
+          <t>https://www.lego.com/fr-fr/product/31379</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -904,17 +884,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31154</t>
+          <t>31384</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Les animaux de la forêt : Le renard roux</t>
+          <t>Animaux sauvages : le colibri coloré</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -924,12 +904,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt73662553f9401b9b/31154.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta735df411e869f69/31384_Prod_Crop.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31154</t>
+          <t>https://www.lego.com/fr-fr/product/31384</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -940,116 +920,104 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31167</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Le manoir hanté</t>
+          <t>Animaux marins : les beaux dauphins</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Creator 3-en-1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt61735fb0922b35cc/31167_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltbf6cbcbb8ff1610b/31385_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31167</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-creator-31167-le-manoir-hante/pr-C1844715</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-creator-le-manoir-hante-jouet-de-construction-31167-5702017822426</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/31385</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>40478</t>
+          <t>40957</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Le château Disney miniature</t>
+          <t>La couronne printanière</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>747</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9a53be3e8553bce6/40478_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltd979e8936ef8f4e8/40957_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40478</t>
+          <t>https://www.lego.com/fr-fr/product/40957</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.avenuedelabrique.com/lego-disney/40478-le-chateau-disney-miniature/p7596</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>40809</t>
+          <t>42222</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>La maison en pain d’épices festive</t>
+          <t>Hypercar Bugatti Chiron Pur Sport</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltb7a1123d80cfb95b/40809_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0a9009b95130ef89/42222_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40809</t>
+          <t>https://www.lego.com/fr-fr/product/42222</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1060,32 +1028,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>40820</t>
+          <t>42227</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Minifigurine du Père Noël grand format</t>
+          <t>SUV Jeep® Wrangler Rubicon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc307fd1f5230e03d/40820_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8f7d3695517d3132/42227_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40820</t>
+          <t>https://www.lego.com/fr-fr/product/42227</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1096,32 +1064,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>40825</t>
+          <t>42684</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>La couronne d’Halloween</t>
+          <t>Le café licorne</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt43e116a81cdae61f/40825_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt83ef724ade6083c3/42684_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40825</t>
+          <t>https://www.lego.com/fr-fr/product/42684</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1132,32 +1100,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>41843</t>
+          <t>42688</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sapin de Noël à construire en famille</t>
+          <t>L’écurie et l’école d’équitation</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3171</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LEGO® Icons</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltae6e1e985a290a75/41843_WEB_PRI_NOBG_2.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt681e22a3e533a70a/42688_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/41843</t>
+          <t>https://www.lego.com/fr-fr/product/42688</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1168,87 +1136,71 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>42172</t>
+          <t>42696</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>McLaren P1</t>
+          <t>La clinique vétérinaire</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Technic</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt519dac201a3dd4c1/42172.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc4781be88c8bb640/42696_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42172</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-technic-42172-mclaren-p1-supercar/pr-C1814023</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/mclaren-p1-5702017595672</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-mclaren-p1-42172-lego-5702017595672</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/42696</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>43230</t>
+          <t>43281</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>La caméra Hommage à Walt Disney</t>
+          <t>Le château de glace et la piste enneigée d’Elsa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta0d2ef903df1c30c/43230.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3c56a41db2717b7b/43281_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43230</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-lego-disney-43230-la-camera-hommage-a-walt-disney-maquette-pour-adultes-avec-mickey-et-minnie-mouse/pr-C1718290</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/43281</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1256,80 +1208,68 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>43257</t>
+          <t>43287</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Le pique-nique d’Olaf et Bruni</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt56c61562d64dc2e4/43257_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9bcf160a34a7c824/43287_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43257</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-disney-43257-angel-stitch/pr-C1836201</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-angel-jouet-de-construction-lilo-et-stitch-pour-filles-et-garcons-43257-5702017813967</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-angel-43257-lego-5702017813967</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/43287</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>43260</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L'île de Vaiana miniature</t>
+          <t>Kit de science Mission lunaire</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blte3899e6f083ec338/43260_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltf7b7ce8f03c1660e/bltb54bf9af8b6f95a9-45200_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43260</t>
+          <t>https://www.lego.com/fr-fr/product/45200</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1340,80 +1280,68 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>43267</t>
+          <t>75423</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Le château des princesses et les animaux royaux</t>
+          <t>SMART Play™ : le X-Wing™ Red Five de Luke</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>581</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc5e58398c856ec9b/43267_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5083a28189d02095/75423_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43267</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-disney-43267-la-chateau-des-princesses-et-les-animaux-royaux/pr-C1839464</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/lego-disney-princess-le-chateau-des-princesses-et-les-animaux-royaux-43267-5702017814568</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-chateau-des-princesses-et-les-animaux-royaux-43267-lego-5702017814568</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/75423</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>43278</t>
+          <t>75440</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Château d’Arendelle et palais de glace d’Elsa miniatures</t>
+          <t>AT-AT™</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Disney™</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9b30046d62bfedb3/43278_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt26f813f1a1f499c6/75440_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43278</t>
+          <t>https://www.lego.com/fr-fr/product/75440</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1424,166 +1352,38 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>60367</t>
+          <t>77256</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L’avion de ligne</t>
+          <t>La machine à remonter le temps de Retour vers le futur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta636ffccc87fdf4b/60367.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltcf1faba2d5f4a688/77256_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/60367</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-lego-city-60367-l-avion-de-ligne-jouet-avec-bus-de-l-aeroport-remorqueur-camion-a-bagages-et-9-minifigurines/pr-C1718310</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://www.e.leclerc/fp/l-avion-de-ligne-5702017416274?srsltid=AfmBOorK1WUD-ZnAbLCczVAVBtBljFx-AHHh7iXqiXiScD6CX2JFzn2B</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-city-l-avion-de-ligne-60367-lego-5702017416274</t>
-        </is>
-      </c>
+          <t>https://www.lego.com/fr-fr/product/77256</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>72037</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Mario Kart Mario et kart standard</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>LEGO® Super Mario™</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9b9bd9113f7f11d9/72037_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/72037</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>75417</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Le marcheur AT-ST™</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1513</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Star Wars™</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt98568413538e8f35/75417_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/75417</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://www.auchan.fr/lego-star-wars75417-le-marcheur-at-st/pr-C1844702</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://www.carrefour.fr/p/lego-le-marcheur-at-st-75417-lego-5702017817668</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>75639</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Le bateau pirate Vogue Merry</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1376</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>One Piece</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt25bc5b8dc7d77c0b/75639_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/75639</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,32 +488,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>10321</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L’étoile de Noël</t>
+          <t>Corvette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt2564f1fe0e59bb78/10321.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10370</t>
+          <t>https://www.lego.com/fr-fr/product/10321</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -524,32 +524,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10372</t>
+          <t>10339</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hibiscus</t>
+          <t>Le bureau de poste du Père Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Botanical Collection</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3c4e5efcccc53a93/10339_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10372</t>
+          <t>https://www.lego.com/fr-fr/product/10339</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -560,17 +560,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11370</t>
+          <t>10357</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stranger Things : la Maison Creel</t>
+          <t>Shelby Cobra 427 S/C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8170cb2935ea6596/11370_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8a933e3230c8710d/10357_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11370</t>
+          <t>https://www.lego.com/fr-fr/product/10357</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -596,17 +596,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11372</t>
+          <t>10365</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le jardin d'automne</t>
+          <t>Le bateau pirate du capitaine Jack Sparrow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>2862</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt0345da5be8baeb2d/11372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltcf20096d15e25f4c/10365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11372</t>
+          <t>https://www.lego.com/fr-fr/product/10365</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -632,32 +632,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11384</t>
+          <t>10370</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le chiot Golden Retriever</t>
+          <t>L’étoile de Noël</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc6a68358c38c3bf9/blt00e69bfd89abdb56-11384_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11384</t>
+          <t>https://www.lego.com/fr-fr/product/10370</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -668,32 +668,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11508</t>
+          <t>10372</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marguerites</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>660</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt515cd2564f9b2dcf/11508_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11508</t>
+          <t>https://www.lego.com/fr-fr/product/10372</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -704,32 +704,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11509</t>
+          <t>11370</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cactus fleuri</t>
+          <t>Stranger Things : la Maison Creel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>482</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt05c278dbcfaa4871/11509_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8170cb2935ea6596/11370_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11509</t>
+          <t>https://www.lego.com/fr-fr/product/11370</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -740,32 +736,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21365</t>
+          <t>11372</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Les oiseaux amoureux</t>
+          <t>Le jardin d'automne</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt859e843a3f8c5af9/21365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0345da5be8baeb2d/11372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/21365</t>
+          <t>https://www.lego.com/fr-fr/product/11372</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -776,32 +768,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31218</t>
+          <t>11384</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Les cerisiers en fleurs</t>
+          <t>Le chiot Golden Retriever</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1892</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>2102</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt3f6cace2ff7687c6/31218_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc6a68358c38c3bf9/blt00e69bfd89abdb56-11384_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31218</t>
+          <t>https://www.lego.com/fr-fr/product/11384</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -812,32 +800,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31378</t>
+          <t>11508</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Le télescope d’exploration spatiale</t>
+          <t>Marguerites</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt71fe323b45263a78/31378_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt515cd2564f9b2dcf/11508_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31378</t>
+          <t>https://www.lego.com/fr-fr/product/11508</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -848,32 +832,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31379</t>
+          <t>11509</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Le dinosaure féroce</t>
+          <t>Cactus fleuri</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt94ad0e9878a39d0a/31379_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt05c278dbcfaa4871/11509_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31379</t>
+          <t>https://www.lego.com/fr-fr/product/11509</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -884,17 +864,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31384</t>
+          <t>21338</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Animaux sauvages : le colibri coloré</t>
+          <t>La maison en A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -904,12 +884,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta735df411e869f69/31384_Prod_Crop.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt2b163a472ef2e61f/21338.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31384</t>
+          <t>https://www.lego.com/fr-fr/product/21338</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -920,32 +900,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31385</t>
+          <t>21365</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Animaux marins : les beaux dauphins</t>
+          <t>Les oiseaux amoureux</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltbf6cbcbb8ff1610b/31385_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt859e843a3f8c5af9/21365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31385</t>
+          <t>https://www.lego.com/fr-fr/product/21365</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -956,32 +932,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>40957</t>
+          <t>31218</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>La couronne printanière</t>
+          <t>Les cerisiers en fleurs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltd979e8936ef8f4e8/40957_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3f6cace2ff7687c6/31218_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40957</t>
+          <t>https://www.lego.com/fr-fr/product/31218</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -992,32 +964,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>42222</t>
+          <t>31378</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hypercar Bugatti Chiron Pur Sport</t>
+          <t>Le télescope d’exploration spatiale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>771</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt0a9009b95130ef89/42222_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt71fe323b45263a78/31378_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42222</t>
+          <t>https://www.lego.com/fr-fr/product/31378</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1028,32 +996,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>42227</t>
+          <t>31379</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SUV Jeep® Wrangler Rubicon</t>
+          <t>Le dinosaure féroce</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8f7d3695517d3132/42227_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt94ad0e9878a39d0a/31379_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42227</t>
+          <t>https://www.lego.com/fr-fr/product/31379</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1064,32 +1028,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>42684</t>
+          <t>31384</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Le café licorne</t>
+          <t>Animaux sauvages : le colibri coloré</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>475</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt83ef724ade6083c3/42684_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta735df411e869f69/31384_Prod_Crop.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42684</t>
+          <t>https://www.lego.com/fr-fr/product/31384</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1100,32 +1060,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>42688</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L’écurie et l’école d’équitation</t>
+          <t>Animaux marins : les beaux dauphins</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>735</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt681e22a3e533a70a/42688_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltbf6cbcbb8ff1610b/31385_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42688</t>
+          <t>https://www.lego.com/fr-fr/product/31385</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1136,32 +1092,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>42696</t>
+          <t>40957</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>La clinique vétérinaire</t>
+          <t>La couronne printanière</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc4781be88c8bb640/42696_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltd979e8936ef8f4e8/40957_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42696</t>
+          <t>https://www.lego.com/fr-fr/product/40957</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1172,32 +1124,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>43281</t>
+          <t>42222</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Le château de glace et la piste enneigée d’Elsa</t>
+          <t>Hypercar Bugatti Chiron Pur Sport</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt3c56a41db2717b7b/43281_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0a9009b95130ef89/42222_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43281</t>
+          <t>https://www.lego.com/fr-fr/product/42222</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1208,32 +1156,28 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>43287</t>
+          <t>42227</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Le pique-nique d’Olaf et Bruni</t>
+          <t>SUV Jeep® Wrangler Rubicon</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9bcf160a34a7c824/43287_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8f7d3695517d3132/42227_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43287</t>
+          <t>https://www.lego.com/fr-fr/product/42227</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1244,32 +1188,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>43281</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kit de science Mission lunaire</t>
+          <t>Le château de glace et la piste enneigée d’Elsa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>519</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltf7b7ce8f03c1660e/bltb54bf9af8b6f95a9-45200_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3c56a41db2717b7b/43281_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/45200</t>
+          <t>https://www.lego.com/fr-fr/product/43281</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1280,32 +1220,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>75423</t>
+          <t>43287</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SMART Play™ : le X-Wing™ Red Five de Luke</t>
+          <t>Le pique-nique d’Olaf et Bruni</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5083a28189d02095/75423_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9bcf160a34a7c824/43287_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75423</t>
+          <t>https://www.lego.com/fr-fr/product/43287</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1316,32 +1252,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>75440</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AT-AT™</t>
+          <t>Kit de science Mission lunaire</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt26f813f1a1f499c6/75440_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltf7b7ce8f03c1660e/bltb54bf9af8b6f95a9-45200_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75440</t>
+          <t>https://www.lego.com/fr-fr/product/45200</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1352,32 +1284,28 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>77256</t>
+          <t>75423</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La machine à remonter le temps de Retour vers le futur</t>
+          <t>SMART Play™ : le X-Wing™ Red Five de Luke</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>357</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltcf1faba2d5f4a688/77256_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5083a28189d02095/75423_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/77256</t>
+          <t>https://www.lego.com/fr-fr/product/75423</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1385,6 +1313,70 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>75440</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AT-AT™</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt26f813f1a1f499c6/75440_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/75440</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>77256</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>La machine à remonter le temps de Retour vers le futur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltcf1faba2d5f4a688/77256_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.lego.com/fr-fr/product/77256</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/config_sets.xlsx
+++ b/config_sets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,11 +501,7 @@
           <t>1210</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt2564f1fe0e59bb78/10321.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
@@ -537,11 +533,7 @@
           <t>1440</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>https://www.lego.com/cdn/cs/set/assets/blt3c4e5efcccc53a93/10339_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
@@ -560,32 +552,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10357</t>
+          <t>10365</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shelby Cobra 427 S/C</t>
+          <t>Le bateau pirate du capitaine Jack Sparrow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1241</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>2862</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8a933e3230c8710d/10357_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltcf20096d15e25f4c/10365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10357</t>
+          <t>https://www.lego.com/fr-fr/product/10365</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -596,32 +584,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10365</t>
+          <t>10370</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le bateau pirate du capitaine Jack Sparrow</t>
+          <t>L’étoile de Noël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2862</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Botanical Collection</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltcf20096d15e25f4c/10365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10365</t>
+          <t>https://www.lego.com/fr-fr/product/10370</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -632,17 +620,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>10372</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L’étoile de Noël</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>660</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -652,12 +640,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5b9064fcb12ba88b/10370_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10370</t>
+          <t>https://www.lego.com/fr-fr/product/10372</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -668,32 +656,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10372</t>
+          <t>11370</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hibiscus</t>
+          <t>Stranger Things : la Maison Creel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The Botanical Collection</t>
-        </is>
-      </c>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt4d1c7d7f1731540a/10372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=800&amp;height=800&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8170cb2935ea6596/11370_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/10372</t>
+          <t>https://www.lego.com/fr-fr/product/11370</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -704,28 +688,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11370</t>
+          <t>11372</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stranger Things : la Maison Creel</t>
+          <t>Le jardin d'automne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8170cb2935ea6596/11370_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0345da5be8baeb2d/11372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11370</t>
+          <t>https://www.lego.com/fr-fr/product/11372</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -736,28 +720,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11372</t>
+          <t>11384</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Le jardin d'automne</t>
+          <t>Le chiot Golden Retriever</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt0345da5be8baeb2d/11372_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltc6a68358c38c3bf9/blt00e69bfd89abdb56-11384_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11372</t>
+          <t>https://www.lego.com/fr-fr/product/11384</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -768,28 +752,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11384</t>
+          <t>11508</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le chiot Golden Retriever</t>
+          <t>Marguerites</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltc6a68358c38c3bf9/blt00e69bfd89abdb56-11384_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt515cd2564f9b2dcf/11508_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11384</t>
+          <t>https://www.lego.com/fr-fr/product/11508</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -800,28 +784,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11508</t>
+          <t>11509</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marguerites</t>
+          <t>Cactus fleuri</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt515cd2564f9b2dcf/11508_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt05c278dbcfaa4871/11509_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11508</t>
+          <t>https://www.lego.com/fr-fr/product/11509</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -832,28 +816,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11509</t>
+          <t>21338</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cactus fleuri</t>
+          <t>La maison en A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt05c278dbcfaa4871/11509_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt2b163a472ef2e61f/21338.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/11509</t>
+          <t>https://www.lego.com/fr-fr/product/21338</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -864,32 +848,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21338</t>
+          <t>21365</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>La maison en A</t>
+          <t>Les oiseaux amoureux</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2082</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt2b163a472ef2e61f/21338.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt859e843a3f8c5af9/21365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/21338</t>
+          <t>https://www.lego.com/fr-fr/product/21365</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -900,28 +880,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21365</t>
+          <t>31218</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Les oiseaux amoureux</t>
+          <t>Les cerisiers en fleurs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt859e843a3f8c5af9/21365_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3f6cace2ff7687c6/31218_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/21365</t>
+          <t>https://www.lego.com/fr-fr/product/31218</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -932,28 +912,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>31218</t>
+          <t>31378</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Les cerisiers en fleurs</t>
+          <t>Le télescope d’exploration spatiale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt3f6cace2ff7687c6/31218_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt71fe323b45263a78/31378_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31218</t>
+          <t>https://www.lego.com/fr-fr/product/31378</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -964,28 +944,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31378</t>
+          <t>31379</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le télescope d’exploration spatiale</t>
+          <t>Le dinosaure féroce</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt71fe323b45263a78/31378_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt94ad0e9878a39d0a/31379_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31378</t>
+          <t>https://www.lego.com/fr-fr/product/31379</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -996,28 +976,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>31379</t>
+          <t>31384</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Le dinosaure féroce</t>
+          <t>Animaux sauvages : le colibri coloré</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt94ad0e9878a39d0a/31379_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blta735df411e869f69/31384_Prod_Crop.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31379</t>
+          <t>https://www.lego.com/fr-fr/product/31384</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1028,28 +1008,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31384</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Animaux sauvages : le colibri coloré</t>
+          <t>Animaux marins : les beaux dauphins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blta735df411e869f69/31384_Prod_Crop.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltbf6cbcbb8ff1610b/31385_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31384</t>
+          <t>https://www.lego.com/fr-fr/product/31385</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1060,28 +1040,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>31385</t>
+          <t>40957</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Animaux marins : les beaux dauphins</t>
+          <t>La couronne printanière</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>747</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltbf6cbcbb8ff1610b/31385_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltd979e8936ef8f4e8/40957_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/31385</t>
+          <t>https://www.lego.com/fr-fr/product/40957</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1092,28 +1072,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>40957</t>
+          <t>42222</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>La couronne printanière</t>
+          <t>Hypercar Bugatti Chiron Pur Sport</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltd979e8936ef8f4e8/40957_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt0a9009b95130ef89/42222_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/40957</t>
+          <t>https://www.lego.com/fr-fr/product/42222</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,28 +1104,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>42222</t>
+          <t>42227</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hypercar Bugatti Chiron Pur Sport</t>
+          <t>SUV Jeep® Wrangler Rubicon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt0a9009b95130ef89/42222_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt8f7d3695517d3132/42227_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42222</t>
+          <t>https://www.lego.com/fr-fr/product/42227</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1156,28 +1136,28 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>42227</t>
+          <t>43281</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SUV Jeep® Wrangler Rubicon</t>
+          <t>Le château de glace et la piste enneigée d’Elsa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt8f7d3695517d3132/42227_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt3c56a41db2717b7b/43281_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/42227</t>
+          <t>https://www.lego.com/fr-fr/product/43281</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1188,28 +1168,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>43281</t>
+          <t>43287</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Le château de glace et la piste enneigée d’Elsa</t>
+          <t>Le pique-nique d’Olaf et Bruni</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt3c56a41db2717b7b/43281_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt9bcf160a34a7c824/43287_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43281</t>
+          <t>https://www.lego.com/fr-fr/product/43287</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1220,28 +1200,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>43287</t>
+          <t>45200</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Le pique-nique d’Olaf et Bruni</t>
+          <t>Kit de science Mission lunaire</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>519</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt9bcf160a34a7c824/43287_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltf7b7ce8f03c1660e/bltb54bf9af8b6f95a9-45200_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/43287</t>
+          <t>https://www.lego.com/fr-fr/product/45200</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1252,28 +1232,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>45200</t>
+          <t>75423</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kit de science Mission lunaire</t>
+          <t>SMART Play™ : le X-Wing™ Red Five de Luke</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>581</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltf7b7ce8f03c1660e/bltb54bf9af8b6f95a9-45200_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt5083a28189d02095/75423_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/45200</t>
+          <t>https://www.lego.com/fr-fr/product/75423</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1284,28 +1264,28 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>75423</t>
+          <t>75440</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SMART Play™ : le X-Wing™ Red Five de Luke</t>
+          <t>AT-AT™</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>525</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt5083a28189d02095/75423_Prod.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/blt26f813f1a1f499c6/75440_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75423</t>
+          <t>https://www.lego.com/fr-fr/product/75440</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1316,28 +1296,28 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>75440</t>
+          <t>77256</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AT-AT™</t>
+          <t>La machine à remonter le temps de Retour vers le futur</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/blt26f813f1a1f499c6/75440_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
+          <t>https://www.lego.com/cdn/cs/set/assets/bltcf1faba2d5f4a688/77256_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.lego.com/fr-fr/product/75440</t>
+          <t>https://www.lego.com/fr-fr/product/77256</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1345,38 +1325,6 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>77256</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>La machine à remonter le temps de Retour vers le futur</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>357</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/cdn/cs/set/assets/bltcf1faba2d5f4a688/77256_Prod_en-gb.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=528&amp;height=528&amp;dpr=1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://www.lego.com/fr-fr/product/77256</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
